--- a/biology/Zoologie/Bungarus_candidus/Bungarus_candidus.xlsx
+++ b/biology/Zoologie/Bungarus_candidus/Bungarus_candidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bungarus candidus, le Bongare candide, est une espèce de serpents de la famille des Elapidae[1]. C'est un serpent extrêmement venimeux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bungarus candidus, le Bongare candide, est une espèce de serpents de la famille des Elapidae. C'est un serpent extrêmement venimeux.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bongare candide vit dans les endroits frais et humide, principalement sous les rochers et dans les souches, près de point d'eau (rizières, barrages...). On peut le trouver dans les collines jusqu'à 300 mètres d'altitude.
-Cette espèce se rencontre[1] :
+Cette espèce se rencontre :
 au Viêt Nam ;
 au Cambodge ;
 en Thaïlande ;
 en Malaisie ;
 à Singapour ;
 en Indonésie à Sumatra, à Java et à Bali.
-Sa présence à Sulawesi n'est pas certaine[2].
+Sa présence à Sulawesi n'est pas certaine.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce serpent a des bandes blanches et noires caractéristiques. Il mesure au maximum 1,6 mètre.
@@ -583,9 +599,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent est extrêmement venimeux y compris pour l'homme. La plupart des morsures ont lieu la nuit, dans les maisons, quand les gens dorment et bougent dans leur sommeil. Ces morsures ont souvent une issue tragique ; mais il existe heureusement des anti-venins très efficaces[3] ; la journée, il dort et présente peu de danger. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent est extrêmement venimeux y compris pour l'homme. La plupart des morsures ont lieu la nuit, dans les maisons, quand les gens dorment et bougent dans leur sommeil. Ces morsures ont souvent une issue tragique ; mais il existe heureusement des anti-venins très efficaces ; la journée, il dort et présente peu de danger. 
 Il est moins agressif que le bongare annelé et a moins tendance à mordre.
 </t>
         </is>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
